--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3F5FF-BF48-4ED3-86FE-8C0083DFB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A571920-EAF7-4F48-9A9F-A8646A1504F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>what</t>
   </si>
@@ -51,7 +51,13 @@
     <t>University of Illinois at Urbana-Champaign</t>
   </si>
   <si>
-    <t>Aug 16 2021</t>
+    <t>Sep. 2021</t>
+  </si>
+  <si>
+    <t>Faculty Affiliate</t>
+  </si>
+  <si>
+    <t>Informatics</t>
   </si>
 </sst>
 </file>
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,13 +403,27 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A571920-EAF7-4F48-9A9F-A8646A1504F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72185A-C0D5-4213-869C-B96B546A3A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>Faculty Affiliate</t>
   </si>
   <si>
-    <t>Informatics</t>
+    <t>Illinois Informatics Institute</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync (jzs323@psu.edu)\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72185A-C0D5-4213-869C-B96B546A3A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20E0BA-FF89-43A5-86DB-380662C54F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>what</t>
   </si>
@@ -51,13 +51,19 @@
     <t>University of Illinois at Urbana-Champaign</t>
   </si>
   <si>
-    <t>Sep. 2021</t>
-  </si>
-  <si>
     <t>Faculty Affiliate</t>
   </si>
   <si>
     <t>Illinois Informatics Institute</t>
+  </si>
+  <si>
+    <t>Sep. 2021 - Present</t>
+  </si>
+  <si>
+    <t>Dec. 2021 - Present</t>
+  </si>
+  <si>
+    <t>National Center for Supercomputing Applications</t>
   </si>
 </sst>
 </file>
@@ -376,11 +382,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -406,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -417,15 +421,29 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync (jzs323@psu.edu)\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F20E0BA-FF89-43A5-86DB-380662C54F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA4338-8DEB-4443-927C-E99FF68F1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="430" windowWidth="19420" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>what</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>National Center for Supercomputing Applications</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>RStudio</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>May. 2020 - Aug. 2020</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +459,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync (jzs323@psu.edu)\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\box\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA4338-8DEB-4443-927C-E99FF68F1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95FC96-C626-44E4-8A03-BC99D53F551A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="430" windowWidth="19420" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>what</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>May. 2020 - Aug. 2020</t>
+  </si>
+  <si>
+    <t>Jan. 2022 - Present</t>
+  </si>
+  <si>
+    <t>IDEA (Inclusion, Diversity, Equity, and Access) Institute</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,15 +467,29 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
